--- a/export.xlsx
+++ b/export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stormshield\SNS-AutoScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C686BE0-D496-4BA4-A3B9-120B7BE98D08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161B339-E12F-4E0B-A4EF-32B74A434AA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="656" xr2:uid="{F8438A47-BFC7-401B-8711-0AF0829030BE}"/>
   </bookViews>
@@ -358,9 +358,6 @@
     <t>SRV-DC01</t>
   </si>
   <si>
-    <t>SRV-MAIL</t>
-  </si>
-  <si>
     <t>DNS_1.1.1.1</t>
   </si>
   <si>
@@ -376,12 +373,6 @@
     <t>192.168.1.20</t>
   </si>
   <si>
-    <t>Contrôleur de domaine princpal</t>
-  </si>
-  <si>
-    <t>Contrôleur de domaine secondaire</t>
-  </si>
-  <si>
     <t>Résolution : statique / dynamique</t>
   </si>
   <si>
@@ -404,6 +395,15 @@
   </si>
   <si>
     <t>1.0.0.1</t>
+  </si>
+  <si>
+    <t>Main domain controller</t>
+  </si>
+  <si>
+    <t>Secondary domain controller</t>
+  </si>
+  <si>
+    <t>SRV-EXCHANGE</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,19 +803,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -840,10 +840,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -873,10 +873,10 @@
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -918,10 +918,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1322,10 +1322,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1395,10 +1395,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -1468,10 +1468,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
